--- a/Documentação/Ponto de função/Estimativa de pontos de função.xlsx
+++ b/Documentação/Ponto de função/Estimativa de pontos de função.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1375\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1EB2BDF-FF09-42DE-A4EC-3EC0DEAB5A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B78449E5-4599-438F-A008-C44E88788FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" tabRatio="734" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagem" sheetId="1" r:id="rId1"/>
@@ -652,16 +652,16 @@
     <t>Consultar resonsavel</t>
   </si>
   <si>
-    <t>16 - Notificacao</t>
+    <t>Notificacao</t>
   </si>
   <si>
-    <t>17 - Notficacao - Enviar por categoria</t>
+    <t>Notficacao - Enviar por categoria</t>
   </si>
   <si>
-    <t>18 - Relatorio</t>
+    <t>Relatorio</t>
   </si>
   <si>
-    <t>19 - Relatorio - Gerar</t>
+    <t>Relatorio - Gerar</t>
   </si>
   <si>
     <t>Itens Não Mensuráveis</t>
@@ -2175,31 +2175,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2209,27 +2201,44 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2243,28 +2252,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2282,13 +2273,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2300,8 +2291,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2311,6 +2308,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3204,7 +3204,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:blipFill dpi="0" rotWithShape="0">
                 <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
                 <a:srcRect/>
@@ -3215,7 +3215,7 @@
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="3465A4"/>
               </a:solidFill>
@@ -3225,7 +3225,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3288,7 +3288,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3358,7 +3358,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3428,7 +3428,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3503,7 +3503,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:blipFill dpi="0" rotWithShape="0">
                 <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
                 <a:srcRect/>
@@ -3514,7 +3514,7 @@
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="3465A4"/>
               </a:solidFill>
@@ -3524,7 +3524,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3592,7 +3592,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:blipFill dpi="0" rotWithShape="0">
                 <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
                 <a:srcRect/>
@@ -3603,7 +3603,7 @@
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="3465A4"/>
               </a:solidFill>
@@ -3613,7 +3613,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3719,7 +3719,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:blipFill dpi="0" rotWithShape="0">
                 <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
                 <a:srcRect/>
@@ -3730,7 +3730,7 @@
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="3465A4"/>
               </a:solidFill>
@@ -3740,7 +3740,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3808,7 +3808,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:blipFill dpi="0" rotWithShape="0">
                 <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
                 <a:srcRect/>
@@ -3819,7 +3819,7 @@
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="3465A4"/>
               </a:solidFill>
@@ -3829,7 +3829,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -4157,7 +4157,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4199,7 +4199,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4222,7 +4222,7 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22:V45"/>
       <selection activeCell="B11" sqref="B11"/>
@@ -4247,87 +4247,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="12.75">
-      <c r="A1" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="136"/>
-      <c r="T1" s="136"/>
-      <c r="U1" s="136"/>
-      <c r="V1" s="136"/>
+      <c r="A1" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
     </row>
     <row r="2" spans="1:22" ht="12.75">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
     </row>
     <row r="3" spans="1:22" ht="12.75">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="123"/>
+      <c r="S3" s="123"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
     </row>
     <row r="4" spans="1:22" ht="15">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
       <c r="F4" s="167" t="s">
         <v>2</v>
       </c>
@@ -4339,61 +4339,61 @@
       <c r="L4" s="168"/>
       <c r="M4" s="168"/>
       <c r="N4" s="168"/>
-      <c r="O4" s="137" t="s">
+      <c r="O4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="135">
+      <c r="P4" s="125"/>
+      <c r="Q4" s="126">
         <f>Funções!L4</f>
         <v>139</v>
       </c>
-      <c r="R4" s="135"/>
-      <c r="S4" s="135"/>
-      <c r="T4" s="135"/>
-      <c r="U4" s="135"/>
-      <c r="V4" s="135"/>
+      <c r="R4" s="126"/>
+      <c r="S4" s="126"/>
+      <c r="T4" s="126"/>
+      <c r="U4" s="126"/>
+      <c r="V4" s="126"/>
     </row>
     <row r="5" spans="1:22" ht="15">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="133" t="s">
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="131" t="s">
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="135">
+      <c r="P5" s="129"/>
+      <c r="Q5" s="126">
         <f>Funções!L5</f>
         <v>139</v>
       </c>
-      <c r="R5" s="135"/>
-      <c r="S5" s="135"/>
-      <c r="T5" s="135"/>
-      <c r="U5" s="135"/>
-      <c r="V5" s="135"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="126"/>
     </row>
     <row r="6" spans="1:22" ht="15">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
       <c r="F6" s="167" t="s">
         <v>8</v>
       </c>
@@ -4405,28 +4405,28 @@
       <c r="L6" s="168"/>
       <c r="M6" s="168"/>
       <c r="N6" s="168"/>
-      <c r="O6" s="131" t="s">
+      <c r="O6" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="135">
+      <c r="P6" s="129"/>
+      <c r="Q6" s="126">
         <f>Funções!L6</f>
         <v>139</v>
       </c>
-      <c r="R6" s="135"/>
-      <c r="S6" s="135"/>
-      <c r="T6" s="135"/>
-      <c r="U6" s="135"/>
-      <c r="V6" s="135"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
     </row>
     <row r="7" spans="1:22" ht="15">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
       <c r="F7" s="167" t="s">
         <v>11</v>
       </c>
@@ -4438,27 +4438,27 @@
       <c r="L7" s="168"/>
       <c r="M7" s="168"/>
       <c r="N7" s="168"/>
-      <c r="O7" s="131" t="s">
+      <c r="O7" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="132" t="s">
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="132"/>
-      <c r="T7" s="132"/>
-      <c r="U7" s="132"/>
-      <c r="V7" s="132"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
     </row>
     <row r="8" spans="1:22" ht="15">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="167" t="s">
         <v>15</v>
       </c>
@@ -4470,27 +4470,27 @@
       <c r="L8" s="168"/>
       <c r="M8" s="168"/>
       <c r="N8" s="168"/>
-      <c r="O8" s="131" t="s">
+      <c r="O8" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="131"/>
-      <c r="R8" s="132" t="s">
+      <c r="P8" s="129"/>
+      <c r="Q8" s="129"/>
+      <c r="R8" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="132"/>
-      <c r="T8" s="132"/>
-      <c r="U8" s="132"/>
-      <c r="V8" s="132"/>
+      <c r="S8" s="130"/>
+      <c r="T8" s="130"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="130"/>
     </row>
     <row r="9" spans="1:22" ht="15">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
       <c r="F9" s="167" t="s">
         <v>19</v>
       </c>
@@ -4502,27 +4502,27 @@
       <c r="L9" s="168"/>
       <c r="M9" s="168"/>
       <c r="N9" s="168"/>
-      <c r="O9" s="127" t="s">
+      <c r="O9" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="128">
+      <c r="P9" s="131"/>
+      <c r="Q9" s="131"/>
+      <c r="R9" s="132">
         <v>44652</v>
       </c>
-      <c r="S9" s="128"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="132"/>
+      <c r="V9" s="132"/>
     </row>
     <row r="10" spans="1:22" ht="15">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="167" t="s">
         <v>19</v>
       </c>
@@ -4534,900 +4534,874 @@
       <c r="L10" s="168"/>
       <c r="M10" s="168"/>
       <c r="N10" s="168"/>
-      <c r="O10" s="127" t="s">
+      <c r="O10" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="128">
+      <c r="P10" s="131"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="132">
         <v>44661</v>
       </c>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="132"/>
+      <c r="V10" s="132"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="124"/>
-      <c r="Q11" s="124"/>
-      <c r="R11" s="124"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="124"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
+      <c r="V11" s="133"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="130"/>
-      <c r="T12" s="130"/>
-      <c r="U12" s="130"/>
-      <c r="V12" s="130"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="137"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="137"/>
+      <c r="V12" s="137"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A13" s="129"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="130"/>
-      <c r="O13" s="130"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="130"/>
-      <c r="S13" s="130"/>
-      <c r="T13" s="130"/>
-      <c r="U13" s="130"/>
-      <c r="V13" s="130"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="137"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="137"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="137"/>
+      <c r="U13" s="137"/>
+      <c r="V13" s="137"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A14" s="129"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="130"/>
-      <c r="S14" s="130"/>
-      <c r="T14" s="130"/>
-      <c r="U14" s="130"/>
-      <c r="V14" s="130"/>
+      <c r="A14" s="136"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A15" s="129"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="130"/>
-      <c r="T15" s="130"/>
-      <c r="U15" s="130"/>
-      <c r="V15" s="130"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="124" t="s">
+      <c r="A16" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="124"/>
-      <c r="P16" s="124"/>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="124"/>
-      <c r="T16" s="124"/>
-      <c r="U16" s="124"/>
-      <c r="V16" s="124"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="133"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="133"/>
+      <c r="R16" s="133"/>
+      <c r="S16" s="133"/>
+      <c r="T16" s="133"/>
+      <c r="U16" s="133"/>
+      <c r="V16" s="133"/>
     </row>
     <row r="17" spans="1:22" ht="12.75">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="123"/>
-      <c r="U17" s="123"/>
-      <c r="V17" s="123"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="134"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="134"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
     </row>
     <row r="18" spans="1:22" ht="12.75">
-      <c r="A18" s="123"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="123"/>
-      <c r="T18" s="123"/>
-      <c r="U18" s="123"/>
-      <c r="V18" s="123"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="134"/>
+      <c r="S18" s="134"/>
+      <c r="T18" s="134"/>
+      <c r="U18" s="134"/>
+      <c r="V18" s="134"/>
     </row>
     <row r="19" spans="1:22" ht="12.75">
-      <c r="A19" s="123"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="123"/>
-      <c r="S19" s="123"/>
-      <c r="T19" s="123"/>
-      <c r="U19" s="123"/>
-      <c r="V19" s="123"/>
+      <c r="A19" s="134"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="134"/>
+      <c r="Q19" s="134"/>
+      <c r="R19" s="134"/>
+      <c r="S19" s="134"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="134"/>
+      <c r="V19" s="134"/>
     </row>
     <row r="20" spans="1:22" ht="12.75">
-      <c r="A20" s="123"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="123"/>
-      <c r="V20" s="123"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="134"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="134"/>
+      <c r="V20" s="134"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="124" t="s">
+      <c r="A21" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="124"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="124"/>
-      <c r="S21" s="124"/>
-      <c r="T21" s="124"/>
-      <c r="U21" s="124"/>
-      <c r="V21" s="124"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="133"/>
+      <c r="R21" s="133"/>
+      <c r="S21" s="133"/>
+      <c r="T21" s="133"/>
+      <c r="U21" s="133"/>
+      <c r="V21" s="133"/>
     </row>
     <row r="22" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A22" s="125" t="s">
+      <c r="A22" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="125"/>
-      <c r="S22" s="125"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="125"/>
-      <c r="V22" s="125"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="135"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
     </row>
     <row r="23" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A23" s="125"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="125"/>
-      <c r="T23" s="125"/>
-      <c r="U23" s="125"/>
-      <c r="V23" s="125"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="135"/>
+      <c r="O23" s="135"/>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="135"/>
+      <c r="R23" s="135"/>
+      <c r="S23" s="135"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="135"/>
     </row>
     <row r="24" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A24" s="125"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="125"/>
-      <c r="S24" s="125"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="125"/>
-      <c r="V24" s="125"/>
+      <c r="A24" s="135"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="135"/>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="135"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="135"/>
     </row>
     <row r="25" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A25" s="125"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="125"/>
-      <c r="S25" s="125"/>
-      <c r="T25" s="125"/>
-      <c r="U25" s="125"/>
-      <c r="V25" s="125"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="135"/>
+      <c r="P25" s="135"/>
+      <c r="Q25" s="135"/>
+      <c r="R25" s="135"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="135"/>
     </row>
     <row r="26" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A26" s="125"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="125"/>
-      <c r="R26" s="125"/>
-      <c r="S26" s="125"/>
-      <c r="T26" s="125"/>
-      <c r="U26" s="125"/>
-      <c r="V26" s="125"/>
+      <c r="A26" s="135"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="135"/>
+      <c r="O26" s="135"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="135"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="135"/>
     </row>
     <row r="27" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A27" s="125"/>
-      <c r="B27" s="125"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="125"/>
-      <c r="S27" s="125"/>
-      <c r="T27" s="125"/>
-      <c r="U27" s="125"/>
-      <c r="V27" s="125"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="135"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="135"/>
     </row>
     <row r="28" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A28" s="125"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="125"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="125"/>
-      <c r="Q28" s="125"/>
-      <c r="R28" s="125"/>
-      <c r="S28" s="125"/>
-      <c r="T28" s="125"/>
-      <c r="U28" s="125"/>
-      <c r="V28" s="125"/>
+      <c r="A28" s="135"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
+      <c r="N28" s="135"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="135"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="135"/>
     </row>
     <row r="29" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A29" s="125"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="125"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="125"/>
-      <c r="P29" s="125"/>
-      <c r="Q29" s="125"/>
-      <c r="R29" s="125"/>
-      <c r="S29" s="125"/>
-      <c r="T29" s="125"/>
-      <c r="U29" s="125"/>
-      <c r="V29" s="125"/>
+      <c r="A29" s="135"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
+      <c r="N29" s="135"/>
+      <c r="O29" s="135"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="135"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="135"/>
     </row>
     <row r="30" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A30" s="125"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="125"/>
-      <c r="Q30" s="125"/>
-      <c r="R30" s="125"/>
-      <c r="S30" s="125"/>
-      <c r="T30" s="125"/>
-      <c r="U30" s="125"/>
-      <c r="V30" s="125"/>
+      <c r="A30" s="135"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
+      <c r="N30" s="135"/>
+      <c r="O30" s="135"/>
+      <c r="P30" s="135"/>
+      <c r="Q30" s="135"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="135"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="135"/>
+      <c r="V30" s="135"/>
     </row>
     <row r="31" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A31" s="125"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="125"/>
-      <c r="Q31" s="125"/>
-      <c r="R31" s="125"/>
-      <c r="S31" s="125"/>
-      <c r="T31" s="125"/>
-      <c r="U31" s="125"/>
-      <c r="V31" s="125"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="135"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="135"/>
+      <c r="Q31" s="135"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="135"/>
     </row>
     <row r="32" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A32" s="125"/>
-      <c r="B32" s="125"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="125"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="125"/>
-      <c r="P32" s="125"/>
-      <c r="Q32" s="125"/>
-      <c r="R32" s="125"/>
-      <c r="S32" s="125"/>
-      <c r="T32" s="125"/>
-      <c r="U32" s="125"/>
-      <c r="V32" s="125"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="135"/>
+      <c r="O32" s="135"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="135"/>
+      <c r="R32" s="135"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="135"/>
     </row>
     <row r="33" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A33" s="125"/>
-      <c r="B33" s="125"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="125"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="125"/>
-      <c r="N33" s="125"/>
-      <c r="O33" s="125"/>
-      <c r="P33" s="125"/>
-      <c r="Q33" s="125"/>
-      <c r="R33" s="125"/>
-      <c r="S33" s="125"/>
-      <c r="T33" s="125"/>
-      <c r="U33" s="125"/>
-      <c r="V33" s="125"/>
+      <c r="A33" s="135"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="135"/>
+      <c r="N33" s="135"/>
+      <c r="O33" s="135"/>
+      <c r="P33" s="135"/>
+      <c r="Q33" s="135"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="135"/>
     </row>
     <row r="34" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A34" s="125"/>
-      <c r="B34" s="125"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="125"/>
-      <c r="M34" s="125"/>
-      <c r="N34" s="125"/>
-      <c r="O34" s="125"/>
-      <c r="P34" s="125"/>
-      <c r="Q34" s="125"/>
-      <c r="R34" s="125"/>
-      <c r="S34" s="125"/>
-      <c r="T34" s="125"/>
-      <c r="U34" s="125"/>
-      <c r="V34" s="125"/>
+      <c r="A34" s="135"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="135"/>
+      <c r="J34" s="135"/>
+      <c r="K34" s="135"/>
+      <c r="L34" s="135"/>
+      <c r="M34" s="135"/>
+      <c r="N34" s="135"/>
+      <c r="O34" s="135"/>
+      <c r="P34" s="135"/>
+      <c r="Q34" s="135"/>
+      <c r="R34" s="135"/>
+      <c r="S34" s="135"/>
+      <c r="T34" s="135"/>
+      <c r="U34" s="135"/>
+      <c r="V34" s="135"/>
     </row>
     <row r="35" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A35" s="125"/>
-      <c r="B35" s="125"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="125"/>
-      <c r="O35" s="125"/>
-      <c r="P35" s="125"/>
-      <c r="Q35" s="125"/>
-      <c r="R35" s="125"/>
-      <c r="S35" s="125"/>
-      <c r="T35" s="125"/>
-      <c r="U35" s="125"/>
-      <c r="V35" s="125"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="135"/>
+      <c r="L35" s="135"/>
+      <c r="M35" s="135"/>
+      <c r="N35" s="135"/>
+      <c r="O35" s="135"/>
+      <c r="P35" s="135"/>
+      <c r="Q35" s="135"/>
+      <c r="R35" s="135"/>
+      <c r="S35" s="135"/>
+      <c r="T35" s="135"/>
+      <c r="U35" s="135"/>
+      <c r="V35" s="135"/>
     </row>
     <row r="36" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A36" s="125"/>
-      <c r="B36" s="125"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="125"/>
-      <c r="N36" s="125"/>
-      <c r="O36" s="125"/>
-      <c r="P36" s="125"/>
-      <c r="Q36" s="125"/>
-      <c r="R36" s="125"/>
-      <c r="S36" s="125"/>
-      <c r="T36" s="125"/>
-      <c r="U36" s="125"/>
-      <c r="V36" s="125"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="135"/>
+      <c r="J36" s="135"/>
+      <c r="K36" s="135"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="135"/>
+      <c r="N36" s="135"/>
+      <c r="O36" s="135"/>
+      <c r="P36" s="135"/>
+      <c r="Q36" s="135"/>
+      <c r="R36" s="135"/>
+      <c r="S36" s="135"/>
+      <c r="T36" s="135"/>
+      <c r="U36" s="135"/>
+      <c r="V36" s="135"/>
     </row>
     <row r="37" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A37" s="125"/>
-      <c r="B37" s="125"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="125"/>
-      <c r="K37" s="125"/>
-      <c r="L37" s="125"/>
-      <c r="M37" s="125"/>
-      <c r="N37" s="125"/>
-      <c r="O37" s="125"/>
-      <c r="P37" s="125"/>
-      <c r="Q37" s="125"/>
-      <c r="R37" s="125"/>
-      <c r="S37" s="125"/>
-      <c r="T37" s="125"/>
-      <c r="U37" s="125"/>
-      <c r="V37" s="125"/>
+      <c r="A37" s="135"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="135"/>
+      <c r="J37" s="135"/>
+      <c r="K37" s="135"/>
+      <c r="L37" s="135"/>
+      <c r="M37" s="135"/>
+      <c r="N37" s="135"/>
+      <c r="O37" s="135"/>
+      <c r="P37" s="135"/>
+      <c r="Q37" s="135"/>
+      <c r="R37" s="135"/>
+      <c r="S37" s="135"/>
+      <c r="T37" s="135"/>
+      <c r="U37" s="135"/>
+      <c r="V37" s="135"/>
     </row>
     <row r="38" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A38" s="125"/>
-      <c r="B38" s="125"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="125"/>
-      <c r="H38" s="125"/>
-      <c r="I38" s="125"/>
-      <c r="J38" s="125"/>
-      <c r="K38" s="125"/>
-      <c r="L38" s="125"/>
-      <c r="M38" s="125"/>
-      <c r="N38" s="125"/>
-      <c r="O38" s="125"/>
-      <c r="P38" s="125"/>
-      <c r="Q38" s="125"/>
-      <c r="R38" s="125"/>
-      <c r="S38" s="125"/>
-      <c r="T38" s="125"/>
-      <c r="U38" s="125"/>
-      <c r="V38" s="125"/>
+      <c r="A38" s="135"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="135"/>
+      <c r="G38" s="135"/>
+      <c r="H38" s="135"/>
+      <c r="I38" s="135"/>
+      <c r="J38" s="135"/>
+      <c r="K38" s="135"/>
+      <c r="L38" s="135"/>
+      <c r="M38" s="135"/>
+      <c r="N38" s="135"/>
+      <c r="O38" s="135"/>
+      <c r="P38" s="135"/>
+      <c r="Q38" s="135"/>
+      <c r="R38" s="135"/>
+      <c r="S38" s="135"/>
+      <c r="T38" s="135"/>
+      <c r="U38" s="135"/>
+      <c r="V38" s="135"/>
     </row>
     <row r="39" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A39" s="125"/>
-      <c r="B39" s="125"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="125"/>
-      <c r="K39" s="125"/>
-      <c r="L39" s="125"/>
-      <c r="M39" s="125"/>
-      <c r="N39" s="125"/>
-      <c r="O39" s="125"/>
-      <c r="P39" s="125"/>
-      <c r="Q39" s="125"/>
-      <c r="R39" s="125"/>
-      <c r="S39" s="125"/>
-      <c r="T39" s="125"/>
-      <c r="U39" s="125"/>
-      <c r="V39" s="125"/>
+      <c r="A39" s="135"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="135"/>
+      <c r="F39" s="135"/>
+      <c r="G39" s="135"/>
+      <c r="H39" s="135"/>
+      <c r="I39" s="135"/>
+      <c r="J39" s="135"/>
+      <c r="K39" s="135"/>
+      <c r="L39" s="135"/>
+      <c r="M39" s="135"/>
+      <c r="N39" s="135"/>
+      <c r="O39" s="135"/>
+      <c r="P39" s="135"/>
+      <c r="Q39" s="135"/>
+      <c r="R39" s="135"/>
+      <c r="S39" s="135"/>
+      <c r="T39" s="135"/>
+      <c r="U39" s="135"/>
+      <c r="V39" s="135"/>
     </row>
     <row r="40" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A40" s="125"/>
-      <c r="B40" s="125"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="125"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="125"/>
-      <c r="K40" s="125"/>
-      <c r="L40" s="125"/>
-      <c r="M40" s="125"/>
-      <c r="N40" s="125"/>
-      <c r="O40" s="125"/>
-      <c r="P40" s="125"/>
-      <c r="Q40" s="125"/>
-      <c r="R40" s="125"/>
-      <c r="S40" s="125"/>
-      <c r="T40" s="125"/>
-      <c r="U40" s="125"/>
-      <c r="V40" s="125"/>
+      <c r="A40" s="135"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="135"/>
+      <c r="F40" s="135"/>
+      <c r="G40" s="135"/>
+      <c r="H40" s="135"/>
+      <c r="I40" s="135"/>
+      <c r="J40" s="135"/>
+      <c r="K40" s="135"/>
+      <c r="L40" s="135"/>
+      <c r="M40" s="135"/>
+      <c r="N40" s="135"/>
+      <c r="O40" s="135"/>
+      <c r="P40" s="135"/>
+      <c r="Q40" s="135"/>
+      <c r="R40" s="135"/>
+      <c r="S40" s="135"/>
+      <c r="T40" s="135"/>
+      <c r="U40" s="135"/>
+      <c r="V40" s="135"/>
     </row>
     <row r="41" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A41" s="125"/>
-      <c r="B41" s="125"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="125"/>
-      <c r="L41" s="125"/>
-      <c r="M41" s="125"/>
-      <c r="N41" s="125"/>
-      <c r="O41" s="125"/>
-      <c r="P41" s="125"/>
-      <c r="Q41" s="125"/>
-      <c r="R41" s="125"/>
-      <c r="S41" s="125"/>
-      <c r="T41" s="125"/>
-      <c r="U41" s="125"/>
-      <c r="V41" s="125"/>
+      <c r="A41" s="135"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="135"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="135"/>
+      <c r="K41" s="135"/>
+      <c r="L41" s="135"/>
+      <c r="M41" s="135"/>
+      <c r="N41" s="135"/>
+      <c r="O41" s="135"/>
+      <c r="P41" s="135"/>
+      <c r="Q41" s="135"/>
+      <c r="R41" s="135"/>
+      <c r="S41" s="135"/>
+      <c r="T41" s="135"/>
+      <c r="U41" s="135"/>
+      <c r="V41" s="135"/>
     </row>
     <row r="42" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A42" s="125"/>
-      <c r="B42" s="125"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="125"/>
-      <c r="L42" s="125"/>
-      <c r="M42" s="125"/>
-      <c r="N42" s="125"/>
-      <c r="O42" s="125"/>
-      <c r="P42" s="125"/>
-      <c r="Q42" s="125"/>
-      <c r="R42" s="125"/>
-      <c r="S42" s="125"/>
-      <c r="T42" s="125"/>
-      <c r="U42" s="125"/>
-      <c r="V42" s="125"/>
+      <c r="A42" s="135"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="135"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="135"/>
+      <c r="F42" s="135"/>
+      <c r="G42" s="135"/>
+      <c r="H42" s="135"/>
+      <c r="I42" s="135"/>
+      <c r="J42" s="135"/>
+      <c r="K42" s="135"/>
+      <c r="L42" s="135"/>
+      <c r="M42" s="135"/>
+      <c r="N42" s="135"/>
+      <c r="O42" s="135"/>
+      <c r="P42" s="135"/>
+      <c r="Q42" s="135"/>
+      <c r="R42" s="135"/>
+      <c r="S42" s="135"/>
+      <c r="T42" s="135"/>
+      <c r="U42" s="135"/>
+      <c r="V42" s="135"/>
     </row>
     <row r="43" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A43" s="125"/>
-      <c r="B43" s="125"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
-      <c r="G43" s="125"/>
-      <c r="H43" s="125"/>
-      <c r="I43" s="125"/>
-      <c r="J43" s="125"/>
-      <c r="K43" s="125"/>
-      <c r="L43" s="125"/>
-      <c r="M43" s="125"/>
-      <c r="N43" s="125"/>
-      <c r="O43" s="125"/>
-      <c r="P43" s="125"/>
-      <c r="Q43" s="125"/>
-      <c r="R43" s="125"/>
-      <c r="S43" s="125"/>
-      <c r="T43" s="125"/>
-      <c r="U43" s="125"/>
-      <c r="V43" s="125"/>
+      <c r="A43" s="135"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="135"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="135"/>
+      <c r="K43" s="135"/>
+      <c r="L43" s="135"/>
+      <c r="M43" s="135"/>
+      <c r="N43" s="135"/>
+      <c r="O43" s="135"/>
+      <c r="P43" s="135"/>
+      <c r="Q43" s="135"/>
+      <c r="R43" s="135"/>
+      <c r="S43" s="135"/>
+      <c r="T43" s="135"/>
+      <c r="U43" s="135"/>
+      <c r="V43" s="135"/>
     </row>
     <row r="44" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A44" s="125"/>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="125"/>
-      <c r="K44" s="125"/>
-      <c r="L44" s="125"/>
-      <c r="M44" s="125"/>
-      <c r="N44" s="125"/>
-      <c r="O44" s="125"/>
-      <c r="P44" s="125"/>
-      <c r="Q44" s="125"/>
-      <c r="R44" s="125"/>
-      <c r="S44" s="125"/>
-      <c r="T44" s="125"/>
-      <c r="U44" s="125"/>
-      <c r="V44" s="125"/>
+      <c r="A44" s="135"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="135"/>
+      <c r="F44" s="135"/>
+      <c r="G44" s="135"/>
+      <c r="H44" s="135"/>
+      <c r="I44" s="135"/>
+      <c r="J44" s="135"/>
+      <c r="K44" s="135"/>
+      <c r="L44" s="135"/>
+      <c r="M44" s="135"/>
+      <c r="N44" s="135"/>
+      <c r="O44" s="135"/>
+      <c r="P44" s="135"/>
+      <c r="Q44" s="135"/>
+      <c r="R44" s="135"/>
+      <c r="S44" s="135"/>
+      <c r="T44" s="135"/>
+      <c r="U44" s="135"/>
+      <c r="V44" s="135"/>
     </row>
     <row r="45" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A45" s="125"/>
-      <c r="B45" s="125"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="125"/>
-      <c r="K45" s="125"/>
-      <c r="L45" s="125"/>
-      <c r="M45" s="125"/>
-      <c r="N45" s="125"/>
-      <c r="O45" s="125"/>
-      <c r="P45" s="125"/>
-      <c r="Q45" s="125"/>
-      <c r="R45" s="125"/>
-      <c r="S45" s="125"/>
-      <c r="T45" s="125"/>
-      <c r="U45" s="125"/>
-      <c r="V45" s="125"/>
+      <c r="A45" s="135"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="135"/>
+      <c r="F45" s="135"/>
+      <c r="G45" s="135"/>
+      <c r="H45" s="135"/>
+      <c r="I45" s="135"/>
+      <c r="J45" s="135"/>
+      <c r="K45" s="135"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="135"/>
+      <c r="N45" s="135"/>
+      <c r="O45" s="135"/>
+      <c r="P45" s="135"/>
+      <c r="Q45" s="135"/>
+      <c r="R45" s="135"/>
+      <c r="S45" s="135"/>
+      <c r="T45" s="135"/>
+      <c r="U45" s="135"/>
+      <c r="V45" s="135"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="35">
-    <mergeCell ref="A1:V3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="A16:V16"/>
     <mergeCell ref="A17:V20"/>
     <mergeCell ref="A21:V21"/>
     <mergeCell ref="A22:V45"/>
@@ -5437,6 +5411,32 @@
     <mergeCell ref="R10:V10"/>
     <mergeCell ref="A11:V11"/>
     <mergeCell ref="A12:V15"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="A16:V16"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:V4"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="59" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5455,9 +5455,9 @@
   </sheetPr>
   <dimension ref="A1:O469"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -5481,75 +5481,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" thickBot="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1">
-      <c r="A2" s="138"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="138"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Disposui</v>
       </c>
-      <c r="B4" s="141" t="str">
+      <c r="B4" s="144" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v>Projeto : Sistema de Gerenciamento de Projetos Disposui</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="143"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="146"/>
       <c r="K4" s="107" t="s">
         <v>3</v>
       </c>
@@ -5557,27 +5557,27 @@
         <f>SUM(H8:H469)</f>
         <v>139</v>
       </c>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="141"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="str">
         <f>Contagem!A9&amp;" : "&amp;Contagem!F9</f>
         <v>Responsável : Samuel Firmino Tavares dos Santos</v>
       </c>
-      <c r="B5" s="141" t="str">
+      <c r="B5" s="144" t="str">
         <f>Contagem!A10&amp;" : "&amp;Contagem!F10</f>
         <v>Revisor : Samuel Firmino Tavares dos Santos</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="143"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="146"/>
       <c r="K5" s="109" t="s">
         <v>6</v>
       </c>
@@ -5585,27 +5585,27 @@
         <f>SUM(K8:K469)</f>
         <v>139</v>
       </c>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="115" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v>Empresa : Samfire</v>
       </c>
-      <c r="B6" s="144" t="str">
+      <c r="B6" s="138" t="str">
         <f>"Tipo da Contagem : "&amp;Contagem!F6</f>
         <v>Tipo da Contagem : Projeto de Desenvolvimento</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="140"/>
       <c r="K6" s="108" t="s">
         <v>9</v>
       </c>
@@ -5613,9 +5613,9 @@
         <f>SUM(L8:L469)</f>
         <v>139</v>
       </c>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="141"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1">
       <c r="A7" s="114" t="s">
@@ -23609,41 +23609,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36.6" customHeight="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:12" ht="14.85" customHeight="1">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="147" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="150" t="s">
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="150" t="s">
+      <c r="H2" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150" t="s">
+      <c r="I2" s="148"/>
+      <c r="J2" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="152" t="s">
+      <c r="K2" s="149" t="s">
         <v>79</v>
       </c>
     </row>
@@ -23651,35 +23651,35 @@
       <c r="A3" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
       <c r="F3" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="150"/>
+      <c r="G3" s="148"/>
       <c r="H3" s="23" t="s">
         <v>83</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="150"/>
-      <c r="K3" s="152"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
       <c r="F4" s="2"/>
       <c r="G4" s="24" t="s">
         <v>44</v>
@@ -23701,12 +23701,12 @@
       <c r="A5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
       <c r="F5" s="2" t="s">
         <v>89</v>
       </c>
@@ -23730,12 +23730,12 @@
       <c r="A6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
       <c r="F6" s="2" t="s">
         <v>89</v>
       </c>
@@ -23757,12 +23757,12 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3"/>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
       <c r="F7" s="2" t="s">
         <v>89</v>
       </c>
@@ -23784,12 +23784,12 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3"/>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
       <c r="F8" s="2" t="s">
         <v>89</v>
       </c>
@@ -23811,12 +23811,12 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3"/>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
       <c r="F9" s="2" t="s">
         <v>89</v>
       </c>
@@ -23838,12 +23838,12 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3"/>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="129" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="2" t="s">
         <v>101</v>
       </c>
@@ -23865,12 +23865,12 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3"/>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="2" t="s">
         <v>104</v>
       </c>
@@ -23892,12 +23892,12 @@
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="131" t="s">
+      <c r="B12" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
       <c r="F12" s="2" t="s">
         <v>104</v>
       </c>
@@ -23919,12 +23919,12 @@
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="131" t="s">
+      <c r="B13" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
       <c r="F13" s="2" t="s">
         <v>104</v>
       </c>
@@ -23946,12 +23946,12 @@
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
       <c r="A14" s="3"/>
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
       <c r="F14" s="2" t="s">
         <v>104</v>
       </c>
@@ -23973,12 +23973,12 @@
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
       <c r="F15" s="2" t="s">
         <v>104</v>
       </c>
@@ -24000,12 +24000,12 @@
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
       <c r="F16" s="2" t="s">
         <v>115</v>
       </c>
@@ -24027,12 +24027,12 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3"/>
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="129" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="2" t="s">
         <v>118</v>
       </c>
@@ -24054,12 +24054,12 @@
     </row>
     <row r="18" spans="1:11" ht="13.5" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="131" t="s">
+      <c r="B18" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
       <c r="F18" s="2" t="s">
         <v>118</v>
       </c>
@@ -24081,12 +24081,12 @@
     </row>
     <row r="19" spans="1:11" ht="13.5" customHeight="1">
       <c r="A19" s="3"/>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
       <c r="F19" s="2" t="s">
         <v>123</v>
       </c>
@@ -24108,12 +24108,12 @@
     </row>
     <row r="20" spans="1:11" ht="13.5" customHeight="1">
       <c r="A20" s="3"/>
-      <c r="B20" s="131" t="s">
+      <c r="B20" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
       <c r="F20" s="2" t="s">
         <v>126</v>
       </c>
@@ -24135,12 +24135,12 @@
     </row>
     <row r="21" spans="1:11" ht="13.5" customHeight="1">
       <c r="A21" s="3"/>
-      <c r="B21" s="131" t="s">
+      <c r="B21" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
       <c r="F21" s="2" t="s">
         <v>129</v>
       </c>
@@ -24162,12 +24162,12 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3"/>
-      <c r="B22" s="131" t="s">
+      <c r="B22" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
       <c r="F22" s="2" t="s">
         <v>132</v>
       </c>
@@ -24189,12 +24189,12 @@
     </row>
     <row r="23" spans="1:11" ht="27" customHeight="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="153" t="s">
+      <c r="B23" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="155"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="152"/>
       <c r="F23" s="97" t="s">
         <v>135</v>
       </c>
@@ -24216,12 +24216,12 @@
     </row>
     <row r="24" spans="1:11" ht="27" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="153" t="s">
+      <c r="B24" s="150" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="154"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="155"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="152"/>
       <c r="F24" s="97" t="s">
         <v>135</v>
       </c>
@@ -24243,12 +24243,12 @@
     </row>
     <row r="25" spans="1:11" ht="27" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="156" t="s">
+      <c r="B25" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
       <c r="F25" s="97" t="s">
         <v>135</v>
       </c>
@@ -24270,12 +24270,12 @@
     </row>
     <row r="26" spans="1:11" ht="13.5" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="131" t="s">
+      <c r="B26" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="131"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="131"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
       <c r="F26" s="2" t="s">
         <v>142</v>
       </c>
@@ -24297,12 +24297,12 @@
     </row>
     <row r="27" spans="1:11" ht="13.5" customHeight="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="131" t="s">
+      <c r="B27" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
       <c r="F27" s="2" t="s">
         <v>142</v>
       </c>
@@ -24324,12 +24324,12 @@
     </row>
     <row r="28" spans="1:11" ht="13.5" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="131" t="s">
+      <c r="B28" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="131"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="131"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
       <c r="F28" s="2" t="s">
         <v>142</v>
       </c>
@@ -24351,12 +24351,12 @@
     </row>
     <row r="29" spans="1:11" ht="13.5" customHeight="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="131" t="s">
+      <c r="B29" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
       <c r="F29" s="2" t="s">
         <v>149</v>
       </c>
@@ -24378,12 +24378,12 @@
     </row>
     <row r="30" spans="1:11" ht="13.5" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="131" t="s">
+      <c r="B30" s="129" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
       <c r="F30" s="2" t="s">
         <v>152</v>
       </c>
@@ -24405,12 +24405,12 @@
     </row>
     <row r="31" spans="1:11" ht="13.5" customHeight="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="131" t="s">
+      <c r="B31" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
       <c r="F31" s="2" t="s">
         <v>155</v>
       </c>
@@ -24540,12 +24540,12 @@
     </row>
     <row r="36" spans="1:12" ht="13.5" customHeight="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="131" t="s">
+      <c r="B36" s="129" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
       <c r="F36" s="2" t="s">
         <v>169</v>
       </c>
@@ -24567,10 +24567,10 @@
     </row>
     <row r="37" spans="1:12" ht="13.5" customHeight="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="131"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
       <c r="F37" s="2"/>
       <c r="G37" s="24" t="s">
         <v>171</v>
@@ -24591,10 +24591,10 @@
     </row>
     <row r="38" spans="1:12" ht="13.5" customHeight="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="131"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
       <c r="F38" s="2"/>
       <c r="G38" s="24" t="s">
         <v>171</v>
@@ -24630,25 +24630,25 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.85" customHeight="1">
-      <c r="A40" s="151" t="s">
+      <c r="A40" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="151"/>
-      <c r="C40" s="151"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="150" t="s">
+      <c r="B40" s="147"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="150" t="s">
+      <c r="H40" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150" t="s">
+      <c r="I40" s="148"/>
+      <c r="J40" s="148" t="s">
         <v>173</v>
       </c>
-      <c r="K40" s="152" t="s">
+      <c r="K40" s="149" t="s">
         <v>79</v>
       </c>
       <c r="L40" s="19" t="s">
@@ -24659,42 +24659,42 @@
       <c r="A41" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="150" t="s">
+      <c r="B41" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
       <c r="F41" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="152"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="149"/>
       <c r="L41" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="13.5" customHeight="1">
       <c r="A42" s="26"/>
-      <c r="B42" s="131" t="s">
+      <c r="B42" s="129" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="131"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="129"/>
+      <c r="E42" s="129"/>
       <c r="F42" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G42" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="H42" s="147">
+      <c r="H42" s="154">
         <v>0.6</v>
       </c>
-      <c r="I42" s="147"/>
+      <c r="I42" s="154"/>
       <c r="J42" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G42)</f>
         <v>0</v>
@@ -24710,22 +24710,22 @@
     </row>
     <row r="43" spans="1:12" ht="13.5" customHeight="1">
       <c r="A43" s="26"/>
-      <c r="B43" s="131" t="s">
+      <c r="B43" s="129" t="s">
         <v>177</v>
       </c>
-      <c r="C43" s="131"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="131"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
       <c r="F43" s="2" t="s">
         <v>132</v>
       </c>
       <c r="G43" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="H43" s="147">
+      <c r="H43" s="154">
         <v>0.6</v>
       </c>
-      <c r="I43" s="147"/>
+      <c r="I43" s="154"/>
       <c r="J43" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G43)</f>
         <v>0</v>
@@ -24741,20 +24741,20 @@
     </row>
     <row r="44" spans="1:12" ht="13.5" customHeight="1">
       <c r="A44" s="26"/>
-      <c r="B44" s="131" t="s">
+      <c r="B44" s="129" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="131"/>
-      <c r="D44" s="131"/>
-      <c r="E44" s="131"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="129"/>
       <c r="F44" s="2"/>
       <c r="G44" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="H44" s="147">
-        <v>0</v>
-      </c>
-      <c r="I44" s="147"/>
+      <c r="H44" s="154">
+        <v>0</v>
+      </c>
+      <c r="I44" s="154"/>
       <c r="J44" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G44)</f>
         <v>0</v>
@@ -24770,16 +24770,16 @@
     </row>
     <row r="45" spans="1:12" ht="13.5" customHeight="1">
       <c r="A45" s="26"/>
-      <c r="B45" s="131"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
+      <c r="B45" s="129"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="129"/>
       <c r="F45" s="2"/>
       <c r="G45" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H45" s="147"/>
-      <c r="I45" s="147"/>
+      <c r="H45" s="154"/>
+      <c r="I45" s="154"/>
       <c r="J45" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G45)</f>
         <v>0</v>
@@ -24795,16 +24795,16 @@
     </row>
     <row r="46" spans="1:12" ht="13.5" customHeight="1">
       <c r="A46" s="26"/>
-      <c r="B46" s="131"/>
-      <c r="C46" s="131"/>
-      <c r="D46" s="131"/>
-      <c r="E46" s="131"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="129"/>
       <c r="F46" s="2"/>
       <c r="G46" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H46" s="147"/>
-      <c r="I46" s="147"/>
+      <c r="H46" s="154"/>
+      <c r="I46" s="154"/>
       <c r="J46" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G46)</f>
         <v>0</v>
@@ -24820,16 +24820,16 @@
     </row>
     <row r="47" spans="1:12" ht="13.5">
       <c r="A47" s="26"/>
-      <c r="B47" s="131"/>
-      <c r="C47" s="131"/>
-      <c r="D47" s="131"/>
-      <c r="E47" s="131"/>
+      <c r="B47" s="129"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="129"/>
       <c r="F47" s="2"/>
       <c r="G47" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
+      <c r="H47" s="154"/>
+      <c r="I47" s="154"/>
       <c r="J47" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G47)</f>
         <v>0</v>
@@ -24845,16 +24845,16 @@
     </row>
     <row r="48" spans="1:12" ht="13.5">
       <c r="A48" s="26"/>
-      <c r="B48" s="131"/>
-      <c r="C48" s="131"/>
-      <c r="D48" s="131"/>
-      <c r="E48" s="131"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
       <c r="F48" s="2"/>
       <c r="G48" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H48" s="147"/>
-      <c r="I48" s="147"/>
+      <c r="H48" s="154"/>
+      <c r="I48" s="154"/>
       <c r="J48" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G48)</f>
         <v>0</v>
@@ -24870,16 +24870,16 @@
     </row>
     <row r="49" spans="1:12" ht="13.5">
       <c r="A49" s="26"/>
-      <c r="B49" s="131"/>
-      <c r="C49" s="131"/>
-      <c r="D49" s="131"/>
-      <c r="E49" s="131"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
       <c r="F49" s="2"/>
       <c r="G49" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H49" s="147"/>
-      <c r="I49" s="147"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="154"/>
       <c r="J49" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G49)</f>
         <v>0</v>
@@ -24895,16 +24895,16 @@
     </row>
     <row r="50" spans="1:12" ht="13.5">
       <c r="A50" s="26"/>
-      <c r="B50" s="131"/>
-      <c r="C50" s="131"/>
-      <c r="D50" s="131"/>
-      <c r="E50" s="131"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
       <c r="F50" s="2"/>
       <c r="G50" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H50" s="147"/>
-      <c r="I50" s="147"/>
+      <c r="H50" s="154"/>
+      <c r="I50" s="154"/>
       <c r="J50" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G50)</f>
         <v>0</v>
@@ -24920,16 +24920,16 @@
     </row>
     <row r="51" spans="1:12" ht="13.5">
       <c r="A51" s="26"/>
-      <c r="B51" s="131"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="131"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
       <c r="F51" s="2"/>
       <c r="G51" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H51" s="147"/>
-      <c r="I51" s="147"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
       <c r="J51" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G51)</f>
         <v>0</v>
@@ -24945,16 +24945,16 @@
     </row>
     <row r="52" spans="1:12" ht="13.5">
       <c r="A52" s="26"/>
-      <c r="B52" s="131"/>
-      <c r="C52" s="131"/>
-      <c r="D52" s="131"/>
-      <c r="E52" s="131"/>
+      <c r="B52" s="129"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="129"/>
       <c r="F52" s="2"/>
       <c r="G52" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
+      <c r="H52" s="154"/>
+      <c r="I52" s="154"/>
       <c r="J52" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G52)</f>
         <v>0</v>
@@ -24970,16 +24970,16 @@
     </row>
     <row r="53" spans="1:12" ht="13.5">
       <c r="A53" s="26"/>
-      <c r="B53" s="131"/>
-      <c r="C53" s="131"/>
-      <c r="D53" s="131"/>
-      <c r="E53" s="131"/>
+      <c r="B53" s="129"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
       <c r="F53" s="2"/>
       <c r="G53" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H53" s="147"/>
-      <c r="I53" s="147"/>
+      <c r="H53" s="154"/>
+      <c r="I53" s="154"/>
       <c r="J53" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G53)</f>
         <v>0</v>
@@ -24995,16 +24995,16 @@
     </row>
     <row r="54" spans="1:12" ht="13.5">
       <c r="A54" s="26"/>
-      <c r="B54" s="131"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="131"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
       <c r="F54" s="2"/>
       <c r="G54" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H54" s="147"/>
-      <c r="I54" s="147"/>
+      <c r="H54" s="154"/>
+      <c r="I54" s="154"/>
       <c r="J54" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G54)</f>
         <v>0</v>
@@ -25020,16 +25020,16 @@
     </row>
     <row r="55" spans="1:12" ht="13.5">
       <c r="A55" s="26"/>
-      <c r="B55" s="131"/>
-      <c r="C55" s="131"/>
-      <c r="D55" s="131"/>
-      <c r="E55" s="131"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="129"/>
       <c r="F55" s="2"/>
       <c r="G55" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H55" s="147"/>
-      <c r="I55" s="147"/>
+      <c r="H55" s="154"/>
+      <c r="I55" s="154"/>
       <c r="J55" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G55)</f>
         <v>0</v>
@@ -25045,16 +25045,16 @@
     </row>
     <row r="56" spans="1:12" ht="13.5">
       <c r="A56" s="26"/>
-      <c r="B56" s="131"/>
-      <c r="C56" s="131"/>
-      <c r="D56" s="131"/>
-      <c r="E56" s="131"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="129"/>
+      <c r="E56" s="129"/>
       <c r="F56" s="2"/>
       <c r="G56" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H56" s="147"/>
-      <c r="I56" s="147"/>
+      <c r="H56" s="154"/>
+      <c r="I56" s="154"/>
       <c r="J56" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G56)</f>
         <v>0</v>
@@ -25070,16 +25070,16 @@
     </row>
     <row r="57" spans="1:12" ht="13.5">
       <c r="A57" s="26"/>
-      <c r="B57" s="131"/>
-      <c r="C57" s="131"/>
-      <c r="D57" s="131"/>
-      <c r="E57" s="131"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="129"/>
+      <c r="E57" s="129"/>
       <c r="F57" s="2"/>
       <c r="G57" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H57" s="147"/>
-      <c r="I57" s="147"/>
+      <c r="H57" s="154"/>
+      <c r="I57" s="154"/>
       <c r="J57" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G57)</f>
         <v>0</v>
@@ -25095,16 +25095,16 @@
     </row>
     <row r="58" spans="1:12" ht="13.5">
       <c r="A58" s="26"/>
-      <c r="B58" s="131"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="131"/>
-      <c r="E58" s="131"/>
+      <c r="B58" s="129"/>
+      <c r="C58" s="129"/>
+      <c r="D58" s="129"/>
+      <c r="E58" s="129"/>
       <c r="F58" s="2"/>
       <c r="G58" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H58" s="147"/>
-      <c r="I58" s="147"/>
+      <c r="H58" s="154"/>
+      <c r="I58" s="154"/>
       <c r="J58" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G58)</f>
         <v>0</v>
@@ -25120,16 +25120,16 @@
     </row>
     <row r="59" spans="1:12" ht="13.5">
       <c r="A59" s="26"/>
-      <c r="B59" s="131"/>
-      <c r="C59" s="131"/>
-      <c r="D59" s="131"/>
-      <c r="E59" s="131"/>
+      <c r="B59" s="129"/>
+      <c r="C59" s="129"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="129"/>
       <c r="F59" s="2"/>
       <c r="G59" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H59" s="147"/>
-      <c r="I59" s="147"/>
+      <c r="H59" s="154"/>
+      <c r="I59" s="154"/>
       <c r="J59" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G59)</f>
         <v>0</v>
@@ -25145,16 +25145,16 @@
     </row>
     <row r="60" spans="1:12" ht="13.5">
       <c r="A60" s="26"/>
-      <c r="B60" s="131"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="131"/>
-      <c r="E60" s="131"/>
+      <c r="B60" s="129"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="129"/>
+      <c r="E60" s="129"/>
       <c r="F60" s="2"/>
       <c r="G60" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H60" s="147"/>
-      <c r="I60" s="147"/>
+      <c r="H60" s="154"/>
+      <c r="I60" s="154"/>
       <c r="J60" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G60)</f>
         <v>0</v>
@@ -25170,16 +25170,16 @@
     </row>
     <row r="61" spans="1:12" ht="13.5">
       <c r="A61" s="26"/>
-      <c r="B61" s="131"/>
-      <c r="C61" s="131"/>
-      <c r="D61" s="131"/>
-      <c r="E61" s="131"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="129"/>
       <c r="F61" s="2"/>
       <c r="G61" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H61" s="147"/>
-      <c r="I61" s="147"/>
+      <c r="H61" s="154"/>
+      <c r="I61" s="154"/>
       <c r="J61" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G61)</f>
         <v>0</v>
@@ -25195,16 +25195,16 @@
     </row>
     <row r="62" spans="1:12" ht="13.5">
       <c r="A62" s="26"/>
-      <c r="B62" s="131"/>
-      <c r="C62" s="131"/>
-      <c r="D62" s="131"/>
-      <c r="E62" s="131"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="129"/>
+      <c r="E62" s="129"/>
       <c r="F62" s="2"/>
       <c r="G62" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H62" s="147"/>
-      <c r="I62" s="147"/>
+      <c r="H62" s="154"/>
+      <c r="I62" s="154"/>
       <c r="J62" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G62)</f>
         <v>0</v>
@@ -25220,16 +25220,16 @@
     </row>
     <row r="63" spans="1:12" ht="13.5">
       <c r="A63" s="26"/>
-      <c r="B63" s="131"/>
-      <c r="C63" s="131"/>
-      <c r="D63" s="131"/>
-      <c r="E63" s="131"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="129"/>
+      <c r="E63" s="129"/>
       <c r="F63" s="2"/>
       <c r="G63" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H63" s="147"/>
-      <c r="I63" s="147"/>
+      <c r="H63" s="154"/>
+      <c r="I63" s="154"/>
       <c r="J63" s="27">
         <f>COUNTIF(Funções!B$8:B$469,G63)</f>
         <v>0</v>
@@ -25245,16 +25245,16 @@
     </row>
     <row r="64" spans="1:12" ht="13.5">
       <c r="A64" s="28"/>
-      <c r="B64" s="148"/>
-      <c r="C64" s="148"/>
-      <c r="D64" s="148"/>
-      <c r="E64" s="148"/>
+      <c r="B64" s="155"/>
+      <c r="C64" s="155"/>
+      <c r="D64" s="155"/>
+      <c r="E64" s="155"/>
       <c r="F64" s="29"/>
       <c r="G64" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="H64" s="149"/>
-      <c r="I64" s="149"/>
+      <c r="H64" s="156"/>
+      <c r="I64" s="156"/>
       <c r="J64" s="31">
         <f>COUNTIF(Funções!B$8:B$469,G64)</f>
         <v>0</v>
@@ -25271,36 +25271,54 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="90">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="G40:G41"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
@@ -25313,54 +25331,36 @@
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="A40:F40"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.023611111111111" bottom="1.023611111111111" header="0.51180555555555551" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="48" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -25399,148 +25399,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="162" t="str">
+      <c r="A4" s="159" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Disposui</v>
       </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="139" t="str">
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="141" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v>Projeto : Sistema de Gerenciamento de Projetos Disposui</v>
       </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="162" t="str">
+      <c r="A5" s="159" t="str">
         <f>Contagem!A9&amp;" : "&amp;Contagem!F9</f>
         <v>Responsável : Samuel Firmino Tavares dos Santos</v>
       </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="139" t="str">
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="141" t="str">
         <f>Contagem!A10&amp;" : "&amp;Contagem!F10</f>
         <v>Revisor : Samuel Firmino Tavares dos Santos</v>
       </c>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="162" t="str">
+      <c r="A6" s="159" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v>Empresa : Samfire</v>
       </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="139" t="str">
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="141" t="str">
         <f>"Tipo de Contagem : "&amp;Contagem!F6</f>
         <v>Tipo de Contagem : Projeto de Desenvolvimento</v>
       </c>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="161" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="158"/>
-      <c r="C7" s="159" t="s">
+      <c r="B7" s="161"/>
+      <c r="C7" s="162" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="160" t="s">
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="157" t="s">
         <v>184</v>
       </c>
-      <c r="H7" s="160" t="s">
+      <c r="H7" s="157" t="s">
         <v>185</v>
       </c>
       <c r="I7" s="65"/>
-      <c r="J7" s="160" t="s">
+      <c r="J7" s="157" t="s">
         <v>186</v>
       </c>
-      <c r="K7" s="160"/>
-      <c r="L7" s="161" t="s">
+      <c r="K7" s="157"/>
+      <c r="L7" s="158" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="158"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
       <c r="I8" s="66"/>
-      <c r="J8" s="160"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="161"/>
+      <c r="J8" s="157"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="158"/>
     </row>
     <row r="9" spans="1:12" ht="6" customHeight="1">
       <c r="A9" s="45"/>
@@ -26388,13 +26388,13 @@
     </row>
     <row r="45" spans="1:12" ht="13.5">
       <c r="A45" s="55"/>
-      <c r="B45" s="157" t="s">
+      <c r="B45" s="160" t="s">
         <v>199</v>
       </c>
-      <c r="C45" s="157"/>
-      <c r="D45" s="157"/>
-      <c r="E45" s="157"/>
-      <c r="F45" s="157"/>
+      <c r="C45" s="160"/>
+      <c r="D45" s="160"/>
+      <c r="E45" s="160"/>
+      <c r="F45" s="160"/>
       <c r="G45" s="50">
         <f>SUM(G14+G21+G28+G35+G42)</f>
         <v>139</v>
@@ -26407,13 +26407,13 @@
     </row>
     <row r="46" spans="1:12" ht="13.5">
       <c r="A46" s="55"/>
-      <c r="B46" s="157" t="s">
+      <c r="B46" s="160" t="s">
         <v>200</v>
       </c>
-      <c r="C46" s="157"/>
-      <c r="D46" s="157"/>
-      <c r="E46" s="157"/>
-      <c r="F46" s="157"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="160"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="160"/>
       <c r="G46" s="50">
         <f>(C10+C11+C12)*4+(C17+C18+C19)*5+(C24+C25+C26)*4+(C31+C32+C33)*7+(C38+C39+C40)*5</f>
         <v>142</v>
@@ -26426,13 +26426,13 @@
     </row>
     <row r="47" spans="1:12" ht="13.5">
       <c r="A47" s="55"/>
-      <c r="B47" s="157" t="s">
+      <c r="B47" s="160" t="s">
         <v>201</v>
       </c>
-      <c r="C47" s="157"/>
-      <c r="D47" s="157"/>
-      <c r="E47" s="157"/>
-      <c r="F47" s="157"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="160"/>
+      <c r="E47" s="160"/>
+      <c r="F47" s="160"/>
       <c r="G47" s="50">
         <f>(C31+C32+C33)*35+(C38+C39+C40)*15</f>
         <v>210</v>
@@ -26516,6 +26516,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:F8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="J7:K8"/>
     <mergeCell ref="L7:L8"/>
@@ -26527,11 +26532,6 @@
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="F6:L6"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:F8"/>
   </mergeCells>
   <pageMargins left="0.51180555555555551" right="0.51180555555555551" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.31527777777777777"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -26571,114 +26571,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="162" t="str">
+      <c r="A4" s="159" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Disposui</v>
       </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="139" t="str">
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="141" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v>Projeto : Sistema de Gerenciamento de Projetos Disposui</v>
       </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="164" t="str">
+      <c r="A5" s="163" t="str">
         <f>Contagem!A9&amp;" : "&amp;Contagem!F9</f>
         <v>Responsável : Samuel Firmino Tavares dos Santos</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="139" t="str">
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="141" t="str">
         <f>Contagem!A10&amp;" : "&amp;Contagem!F10</f>
         <v>Revisor : Samuel Firmino Tavares dos Santos</v>
       </c>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="164" t="str">
+      <c r="A6" s="163" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v>Empresa : Samfire</v>
       </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="139" t="str">
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="141" t="str">
         <f>"Tipo de Contagem : "&amp;Contagem!F6</f>
         <v>Tipo de Contagem : Projeto de Desenvolvimento</v>
       </c>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="80"/>
@@ -26686,23 +26686,23 @@
     </row>
     <row r="8" spans="1:13" ht="13.5">
       <c r="A8" s="80"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
       <c r="M8" s="81"/>
     </row>
     <row r="9" spans="1:13" ht="13.5">
       <c r="A9" s="80"/>
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="165" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
       <c r="E9" s="35" t="s">
         <v>173</v>
       </c>
@@ -26725,11 +26725,11 @@
     </row>
     <row r="10" spans="1:13" ht="13.5" customHeight="1">
       <c r="A10" s="80"/>
-      <c r="B10" s="131" t="str">
+      <c r="B10" s="129" t="str">
         <f>""&amp;Deflatores!B4</f>
         <v>Inclusão</v>
       </c>
-      <c r="C10" s="131"/>
+      <c r="C10" s="129"/>
       <c r="D10" s="24" t="str">
         <f>""&amp;Deflatores!G4</f>
         <v>I</v>
@@ -26765,11 +26765,11 @@
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1">
       <c r="A11" s="80"/>
-      <c r="B11" s="131" t="str">
+      <c r="B11" s="129" t="str">
         <f>""&amp;Deflatores!B5</f>
         <v>Alteração (sem conhecimento do Fator de Impacto)</v>
       </c>
-      <c r="C11" s="131"/>
+      <c r="C11" s="129"/>
       <c r="D11" s="24" t="str">
         <f>""&amp;Deflatores!G5</f>
         <v>A</v>
@@ -26807,11 +26807,11 @@
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1">
       <c r="A12" s="80"/>
-      <c r="B12" s="131" t="str">
+      <c r="B12" s="129" t="str">
         <f>""&amp;Deflatores!B6</f>
         <v>Exclusão</v>
       </c>
-      <c r="C12" s="131"/>
+      <c r="C12" s="129"/>
       <c r="D12" s="24" t="str">
         <f>""&amp;Deflatores!G6</f>
         <v>E</v>
@@ -26846,11 +26846,11 @@
     </row>
     <row r="13" spans="1:13" ht="13.5" customHeight="1">
       <c r="A13" s="80"/>
-      <c r="B13" s="131" t="str">
+      <c r="B13" s="129" t="str">
         <f>""&amp;Deflatores!B7</f>
         <v>Alteração (50%) de função desenvolvida ou já alterada pela empresa atual</v>
       </c>
-      <c r="C13" s="131"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="24" t="str">
         <f>""&amp;Deflatores!G7</f>
         <v>A50</v>
@@ -26887,11 +26887,11 @@
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1">
       <c r="A14" s="80"/>
-      <c r="B14" s="131" t="str">
+      <c r="B14" s="129" t="str">
         <f>""&amp;Deflatores!B8</f>
         <v>Alteração (75%) de função não desenv. e ainda não alterada pela empresa atual</v>
       </c>
-      <c r="C14" s="131"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="24" t="str">
         <f>""&amp;Deflatores!G8</f>
         <v>A75</v>
@@ -26928,11 +26928,11 @@
     </row>
     <row r="15" spans="1:13" ht="13.5" customHeight="1">
       <c r="A15" s="80"/>
-      <c r="B15" s="131" t="str">
+      <c r="B15" s="129" t="str">
         <f>""&amp;Deflatores!B9</f>
         <v>Alteração (75%+15%): o mesmo acima + redocumentar a função</v>
       </c>
-      <c r="C15" s="131"/>
+      <c r="C15" s="129"/>
       <c r="D15" s="24" t="str">
         <f>""&amp;Deflatores!G9</f>
         <v>A90</v>
@@ -26965,11 +26965,11 @@
     </row>
     <row r="16" spans="1:13" ht="13.5" customHeight="1">
       <c r="A16" s="80"/>
-      <c r="B16" s="131" t="str">
+      <c r="B16" s="129" t="str">
         <f>""&amp;Deflatores!B10</f>
         <v>Migração de Dados</v>
       </c>
-      <c r="C16" s="131"/>
+      <c r="C16" s="129"/>
       <c r="D16" s="24" t="str">
         <f>""&amp;Deflatores!G10</f>
         <v>PMD</v>
@@ -27002,11 +27002,11 @@
     </row>
     <row r="17" spans="1:13" ht="13.5" customHeight="1">
       <c r="A17" s="80"/>
-      <c r="B17" s="131" t="str">
+      <c r="B17" s="129" t="str">
         <f>""&amp;Deflatores!B11</f>
         <v>Corretiva (sem conhecimento do Fator de Impacto)</v>
       </c>
-      <c r="C17" s="131"/>
+      <c r="C17" s="129"/>
       <c r="D17" s="24" t="str">
         <f>""&amp;Deflatores!G11</f>
         <v>COR</v>
@@ -27039,11 +27039,11 @@
     </row>
     <row r="18" spans="1:13" ht="13.5" customHeight="1">
       <c r="A18" s="80"/>
-      <c r="B18" s="131" t="str">
+      <c r="B18" s="129" t="str">
         <f>""&amp;Deflatores!B12</f>
         <v>Corretiva (50%) - Fora da garantia (mesma empresa)</v>
       </c>
-      <c r="C18" s="131"/>
+      <c r="C18" s="129"/>
       <c r="D18" s="24" t="str">
         <f>""&amp;Deflatores!G12</f>
         <v>COR50</v>
@@ -27076,11 +27076,11 @@
     </row>
     <row r="19" spans="1:13" ht="13.5" customHeight="1">
       <c r="A19" s="80"/>
-      <c r="B19" s="131" t="str">
+      <c r="B19" s="129" t="str">
         <f>""&amp;Deflatores!B13</f>
         <v>Corretiva (75%) - Fora da garantia (outra empresa)</v>
       </c>
-      <c r="C19" s="131"/>
+      <c r="C19" s="129"/>
       <c r="D19" s="24" t="str">
         <f>""&amp;Deflatores!G13</f>
         <v>COR75</v>
@@ -27113,11 +27113,11 @@
     </row>
     <row r="20" spans="1:13" ht="13.5" customHeight="1">
       <c r="A20" s="80"/>
-      <c r="B20" s="131" t="str">
+      <c r="B20" s="129" t="str">
         <f>""&amp;Deflatores!B14</f>
         <v>Corretiva (75%+15%) - Fora da garantia (outra empresa) + Redocumentação</v>
       </c>
-      <c r="C20" s="131"/>
+      <c r="C20" s="129"/>
       <c r="D20" s="24" t="str">
         <f>""&amp;Deflatores!G14</f>
         <v>COR90</v>
@@ -27150,11 +27150,11 @@
     </row>
     <row r="21" spans="1:13" ht="13.5" customHeight="1">
       <c r="A21" s="80"/>
-      <c r="B21" s="131" t="str">
+      <c r="B21" s="129" t="str">
         <f>""&amp;Deflatores!B15</f>
         <v>Corretiva em Garantia</v>
       </c>
-      <c r="C21" s="131"/>
+      <c r="C21" s="129"/>
       <c r="D21" s="24" t="str">
         <f>""&amp;Deflatores!G15</f>
         <v>GAR</v>
@@ -27187,11 +27187,11 @@
     </row>
     <row r="22" spans="1:13" ht="13.5" customHeight="1">
       <c r="A22" s="80"/>
-      <c r="B22" s="131" t="str">
+      <c r="B22" s="129" t="str">
         <f>""&amp;Deflatores!B16</f>
         <v>Mudança de Plataforma - Linguagem de Programação</v>
       </c>
-      <c r="C22" s="131"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="24" t="str">
         <f>""&amp;Deflatores!G16</f>
         <v>MLP</v>
@@ -27224,11 +27224,11 @@
     </row>
     <row r="23" spans="1:13" ht="13.5" customHeight="1">
       <c r="A23" s="80"/>
-      <c r="B23" s="131" t="str">
+      <c r="B23" s="129" t="str">
         <f>""&amp;Deflatores!B17</f>
         <v>Mudança de Plataforma - Banco de Dados (outro paradigma)</v>
       </c>
-      <c r="C23" s="131"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="24" t="str">
         <f>""&amp;Deflatores!G17</f>
         <v>MBO</v>
@@ -27261,11 +27261,11 @@
     </row>
     <row r="24" spans="1:13" ht="13.5" customHeight="1">
       <c r="A24" s="80"/>
-      <c r="B24" s="131" t="str">
+      <c r="B24" s="129" t="str">
         <f>""&amp;Deflatores!B18</f>
         <v>Mudança de Plataforma - Banco de Dados (mesmo paradigma com alterações)</v>
       </c>
-      <c r="C24" s="131"/>
+      <c r="C24" s="129"/>
       <c r="D24" s="24" t="str">
         <f>""&amp;Deflatores!G18</f>
         <v>MBM</v>
@@ -27299,11 +27299,11 @@
     </row>
     <row r="25" spans="1:13" ht="13.5" customHeight="1">
       <c r="A25" s="80"/>
-      <c r="B25" s="131" t="str">
+      <c r="B25" s="129" t="str">
         <f>""&amp;Deflatores!B19</f>
         <v>Atualização de Versão – Linguagem de Programação</v>
       </c>
-      <c r="C25" s="131"/>
+      <c r="C25" s="129"/>
       <c r="D25" s="24" t="str">
         <f>""&amp;Deflatores!G19</f>
         <v>ALP</v>
@@ -27337,11 +27337,11 @@
     </row>
     <row r="26" spans="1:13" ht="13.5" customHeight="1">
       <c r="A26" s="80"/>
-      <c r="B26" s="131" t="str">
+      <c r="B26" s="129" t="str">
         <f>""&amp;Deflatores!B20</f>
         <v>Atualização de Versão – Browser</v>
       </c>
-      <c r="C26" s="131"/>
+      <c r="C26" s="129"/>
       <c r="D26" s="24" t="str">
         <f>""&amp;Deflatores!G20</f>
         <v>AVB</v>
@@ -27375,11 +27375,11 @@
     </row>
     <row r="27" spans="1:13" ht="13.5" customHeight="1">
       <c r="A27" s="80"/>
-      <c r="B27" s="131" t="str">
+      <c r="B27" s="129" t="str">
         <f>""&amp;Deflatores!B21</f>
         <v>Atualização de Versão – Banco de Dados</v>
       </c>
-      <c r="C27" s="131"/>
+      <c r="C27" s="129"/>
       <c r="D27" s="24" t="str">
         <f>""&amp;Deflatores!G21</f>
         <v>ABD</v>
@@ -27413,11 +27413,11 @@
     </row>
     <row r="28" spans="1:13" ht="13.5" customHeight="1">
       <c r="A28" s="80"/>
-      <c r="B28" s="131" t="str">
+      <c r="B28" s="129" t="str">
         <f>""&amp;Deflatores!B22</f>
         <v>Manutenção Cosmética</v>
       </c>
-      <c r="C28" s="131"/>
+      <c r="C28" s="129"/>
       <c r="D28" s="24" t="str">
         <f>""&amp;Deflatores!G22</f>
         <v>COS</v>
@@ -27450,12 +27450,12 @@
     </row>
     <row r="29" spans="1:13" ht="27" customHeight="1">
       <c r="A29" s="80"/>
-      <c r="B29" s="153" t="str">
+      <c r="B29" s="150" t="str">
         <f>""&amp;Deflatores!B23</f>
         <v>Adaptação em Funcionalidades sem Alteração de Requisitos Funcionais
 (sem conhecimento do Fator de Impacto)</v>
       </c>
-      <c r="C29" s="155"/>
+      <c r="C29" s="152"/>
       <c r="D29" s="24" t="str">
         <f>""&amp;Deflatores!G23</f>
         <v>ARN</v>
@@ -27488,12 +27488,12 @@
     </row>
     <row r="30" spans="1:13" ht="27" customHeight="1">
       <c r="A30" s="80"/>
-      <c r="B30" s="153" t="str">
+      <c r="B30" s="150" t="str">
         <f>""&amp;Deflatores!B24</f>
         <v>Adaptação em Funcionalidades sem Alteração de Requisitos Funcionais (50%)
 (em função desenvolvida ou já alterada pela empresa atual)</v>
       </c>
-      <c r="C30" s="155"/>
+      <c r="C30" s="152"/>
       <c r="D30" s="24" t="str">
         <f>""&amp;Deflatores!G24</f>
         <v>ARN50</v>
@@ -27526,12 +27526,12 @@
     </row>
     <row r="31" spans="1:13" ht="27" customHeight="1">
       <c r="A31" s="80"/>
-      <c r="B31" s="153" t="str">
+      <c r="B31" s="150" t="str">
         <f>""&amp;Deflatores!B25</f>
         <v>Adaptação em Funcionalidades sem Alteração de Requisitos Funcionais (75%)
 (em função não desenvolvida e ainda não alterada pela empresa atual)</v>
       </c>
-      <c r="C31" s="155"/>
+      <c r="C31" s="152"/>
       <c r="D31" s="24" t="str">
         <f>""&amp;Deflatores!G25</f>
         <v>ARN75</v>
@@ -27564,11 +27564,11 @@
     </row>
     <row r="32" spans="1:13" ht="13.5" customHeight="1">
       <c r="A32" s="80"/>
-      <c r="B32" s="131" t="str">
+      <c r="B32" s="129" t="str">
         <f>""&amp;Deflatores!B26</f>
         <v>Atualização de Dados sem Consulta Prévia</v>
       </c>
-      <c r="C32" s="131"/>
+      <c r="C32" s="129"/>
       <c r="D32" s="24" t="str">
         <f>""&amp;Deflatores!G26</f>
         <v>ADS</v>
@@ -27601,11 +27601,11 @@
     </row>
     <row r="33" spans="1:13" ht="13.5" customHeight="1">
       <c r="A33" s="80"/>
-      <c r="B33" s="131" t="str">
+      <c r="B33" s="129" t="str">
         <f>""&amp;Deflatores!B27</f>
         <v>Consulta Prévia sem Atualização</v>
       </c>
-      <c r="C33" s="131"/>
+      <c r="C33" s="129"/>
       <c r="D33" s="24" t="str">
         <f>""&amp;Deflatores!G27</f>
         <v>CPA</v>
@@ -27638,11 +27638,11 @@
     </row>
     <row r="34" spans="1:13" ht="13.5" customHeight="1">
       <c r="A34" s="80"/>
-      <c r="B34" s="131" t="str">
+      <c r="B34" s="129" t="str">
         <f>""&amp;Deflatores!B28</f>
         <v>Atualização de Dados com Consulta Prévia</v>
       </c>
-      <c r="C34" s="131"/>
+      <c r="C34" s="129"/>
       <c r="D34" s="24" t="str">
         <f>""&amp;Deflatores!G28</f>
         <v>ADC</v>
@@ -27675,11 +27675,11 @@
     </row>
     <row r="35" spans="1:13" ht="13.5" customHeight="1">
       <c r="A35" s="80"/>
-      <c r="B35" s="131" t="str">
+      <c r="B35" s="129" t="str">
         <f>""&amp;Deflatores!B29</f>
         <v>Apuração Especial – Geração de Relatórios</v>
       </c>
-      <c r="C35" s="131"/>
+      <c r="C35" s="129"/>
       <c r="D35" s="24" t="str">
         <f>""&amp;Deflatores!G29</f>
         <v>AGR</v>
@@ -27712,11 +27712,11 @@
     </row>
     <row r="36" spans="1:13" ht="13.5" customHeight="1">
       <c r="A36" s="80"/>
-      <c r="B36" s="131" t="str">
+      <c r="B36" s="129" t="str">
         <f>""&amp;Deflatores!B30</f>
         <v>Apuração Especial – Reexecução</v>
       </c>
-      <c r="C36" s="131"/>
+      <c r="C36" s="129"/>
       <c r="D36" s="24" t="str">
         <f>""&amp;Deflatores!G30</f>
         <v>AER</v>
@@ -27749,11 +27749,11 @@
     </row>
     <row r="37" spans="1:13" ht="13.5" customHeight="1">
       <c r="A37" s="80"/>
-      <c r="B37" s="131" t="str">
+      <c r="B37" s="129" t="str">
         <f>""&amp;Deflatores!B31</f>
         <v>Atualização de Dados</v>
       </c>
-      <c r="C37" s="131"/>
+      <c r="C37" s="129"/>
       <c r="D37" s="24" t="str">
         <f>""&amp;Deflatores!G31</f>
         <v>ATD</v>
@@ -27786,11 +27786,11 @@
     </row>
     <row r="38" spans="1:13" ht="13.5" customHeight="1">
       <c r="A38" s="80"/>
-      <c r="B38" s="131" t="str">
+      <c r="B38" s="129" t="str">
         <f>""&amp;Deflatores!B32</f>
         <v>Manutenção de Documentação de Sistemas Legados</v>
       </c>
-      <c r="C38" s="131"/>
+      <c r="C38" s="129"/>
       <c r="D38" s="24" t="str">
         <f>""&amp;Deflatores!G32</f>
         <v>MSL</v>
@@ -27823,11 +27823,11 @@
     </row>
     <row r="39" spans="1:13" ht="13.5" customHeight="1">
       <c r="A39" s="80"/>
-      <c r="B39" s="131" t="str">
+      <c r="B39" s="129" t="str">
         <f>""&amp;Deflatores!B33</f>
         <v>Verificação de Erros (Sem Documentação de Teste existente)</v>
       </c>
-      <c r="C39" s="131"/>
+      <c r="C39" s="129"/>
       <c r="D39" s="24" t="str">
         <f>""&amp;Deflatores!G33</f>
         <v>VES</v>
@@ -27860,11 +27860,11 @@
     </row>
     <row r="40" spans="1:13" ht="13.5" customHeight="1">
       <c r="A40" s="80"/>
-      <c r="B40" s="131" t="str">
+      <c r="B40" s="129" t="str">
         <f>""&amp;Deflatores!B34</f>
         <v>Verificação de Erros (Com Documentação de Teste existente)</v>
       </c>
-      <c r="C40" s="131"/>
+      <c r="C40" s="129"/>
       <c r="D40" s="24" t="str">
         <f>""&amp;Deflatores!G34</f>
         <v>VEC</v>
@@ -27897,11 +27897,11 @@
     </row>
     <row r="41" spans="1:13" ht="13.5" customHeight="1">
       <c r="A41" s="80"/>
-      <c r="B41" s="131" t="str">
+      <c r="B41" s="129" t="str">
         <f>""&amp;Deflatores!B35</f>
         <v>Pontos de Função de Teste</v>
       </c>
-      <c r="C41" s="131"/>
+      <c r="C41" s="129"/>
       <c r="D41" s="24" t="str">
         <f>""&amp;Deflatores!G35</f>
         <v>PFT</v>
@@ -27934,11 +27934,11 @@
     </row>
     <row r="42" spans="1:13" ht="13.5" customHeight="1">
       <c r="A42" s="80"/>
-      <c r="B42" s="131" t="str">
+      <c r="B42" s="129" t="str">
         <f>""&amp;Deflatores!B36</f>
         <v>Componente Interno Reusável</v>
       </c>
-      <c r="C42" s="131"/>
+      <c r="C42" s="129"/>
       <c r="D42" s="24" t="str">
         <f>""&amp;Deflatores!G36</f>
         <v>CIR</v>
@@ -27971,11 +27971,11 @@
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1">
       <c r="A43" s="80"/>
-      <c r="B43" s="131" t="str">
+      <c r="B43" s="129" t="str">
         <f>""&amp;Deflatores!B37</f>
         <v/>
       </c>
-      <c r="C43" s="131"/>
+      <c r="C43" s="129"/>
       <c r="D43" s="24" t="str">
         <f>""&amp;Deflatores!G37</f>
         <v xml:space="preserve">           .</v>
@@ -28008,11 +28008,11 @@
     </row>
     <row r="44" spans="1:13" ht="13.5" customHeight="1">
       <c r="A44" s="80"/>
-      <c r="B44" s="131" t="str">
+      <c r="B44" s="129" t="str">
         <f>""&amp;Deflatores!B38</f>
         <v/>
       </c>
-      <c r="C44" s="131"/>
+      <c r="C44" s="129"/>
       <c r="D44" s="24" t="str">
         <f>""&amp;Deflatores!G38</f>
         <v xml:space="preserve">           .</v>
@@ -28057,11 +28057,11 @@
     </row>
     <row r="46" spans="1:13" ht="13.5" customHeight="1">
       <c r="A46" s="80"/>
-      <c r="B46" s="163" t="s">
+      <c r="B46" s="166" t="s">
         <v>208</v>
       </c>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="166"/>
       <c r="E46" s="43" t="s">
         <v>173</v>
       </c>
@@ -28080,11 +28080,11 @@
     </row>
     <row r="47" spans="1:13" ht="13.5" customHeight="1">
       <c r="A47" s="80"/>
-      <c r="B47" s="131" t="str">
+      <c r="B47" s="129" t="str">
         <f>""&amp;Deflatores!B42</f>
         <v>Páginas Estáticas</v>
       </c>
-      <c r="C47" s="131"/>
+      <c r="C47" s="129"/>
       <c r="D47" s="36" t="str">
         <f>""&amp;Deflatores!G42</f>
         <v>PAG</v>
@@ -28109,11 +28109,11 @@
     </row>
     <row r="48" spans="1:13" ht="13.5" customHeight="1">
       <c r="A48" s="80"/>
-      <c r="B48" s="131" t="str">
+      <c r="B48" s="129" t="str">
         <f>""&amp;Deflatores!B43</f>
         <v>Manutenção Cosmética (atrelada a algo não funcional)</v>
       </c>
-      <c r="C48" s="131"/>
+      <c r="C48" s="129"/>
       <c r="D48" s="36" t="str">
         <f>""&amp;Deflatores!G43</f>
         <v>COSNF</v>
@@ -28138,11 +28138,11 @@
     </row>
     <row r="49" spans="1:13" ht="13.5">
       <c r="A49" s="80"/>
-      <c r="B49" s="131" t="str">
+      <c r="B49" s="129" t="str">
         <f>""&amp;Deflatores!B44</f>
         <v>Dados de Código</v>
       </c>
-      <c r="C49" s="131"/>
+      <c r="C49" s="129"/>
       <c r="D49" s="36" t="str">
         <f>""&amp;Deflatores!G44</f>
         <v>DC</v>
@@ -28167,11 +28167,11 @@
     </row>
     <row r="50" spans="1:13" ht="13.5">
       <c r="A50" s="80"/>
-      <c r="B50" s="131" t="str">
+      <c r="B50" s="129" t="str">
         <f>""&amp;Deflatores!B45</f>
         <v/>
       </c>
-      <c r="C50" s="131"/>
+      <c r="C50" s="129"/>
       <c r="D50" s="36" t="str">
         <f>""&amp;Deflatores!G45</f>
         <v xml:space="preserve">           .</v>
@@ -28196,11 +28196,11 @@
     </row>
     <row r="51" spans="1:13" ht="13.5">
       <c r="A51" s="80"/>
-      <c r="B51" s="131" t="str">
+      <c r="B51" s="129" t="str">
         <f>""&amp;Deflatores!B46</f>
         <v/>
       </c>
-      <c r="C51" s="131"/>
+      <c r="C51" s="129"/>
       <c r="D51" s="36" t="str">
         <f>""&amp;Deflatores!G46</f>
         <v xml:space="preserve">           .</v>
@@ -28225,11 +28225,11 @@
     </row>
     <row r="52" spans="1:13" ht="13.5">
       <c r="A52" s="80"/>
-      <c r="B52" s="131" t="str">
+      <c r="B52" s="129" t="str">
         <f>""&amp;Deflatores!B47</f>
         <v/>
       </c>
-      <c r="C52" s="131"/>
+      <c r="C52" s="129"/>
       <c r="D52" s="36" t="str">
         <f>""&amp;Deflatores!G47</f>
         <v xml:space="preserve">           .</v>
@@ -28254,11 +28254,11 @@
     </row>
     <row r="53" spans="1:13" ht="13.5">
       <c r="A53" s="80"/>
-      <c r="B53" s="131" t="str">
+      <c r="B53" s="129" t="str">
         <f>""&amp;Deflatores!B48</f>
         <v/>
       </c>
-      <c r="C53" s="131"/>
+      <c r="C53" s="129"/>
       <c r="D53" s="36" t="str">
         <f>""&amp;Deflatores!G48</f>
         <v xml:space="preserve">           .</v>
@@ -28283,11 +28283,11 @@
     </row>
     <row r="54" spans="1:13" ht="13.5">
       <c r="A54" s="80"/>
-      <c r="B54" s="131" t="str">
+      <c r="B54" s="129" t="str">
         <f>""&amp;Deflatores!B49</f>
         <v/>
       </c>
-      <c r="C54" s="131"/>
+      <c r="C54" s="129"/>
       <c r="D54" s="36" t="str">
         <f>""&amp;Deflatores!G49</f>
         <v xml:space="preserve">           .</v>
@@ -28312,11 +28312,11 @@
     </row>
     <row r="55" spans="1:13" ht="13.5">
       <c r="A55" s="80"/>
-      <c r="B55" s="131" t="str">
+      <c r="B55" s="129" t="str">
         <f>""&amp;Deflatores!B50</f>
         <v/>
       </c>
-      <c r="C55" s="131"/>
+      <c r="C55" s="129"/>
       <c r="D55" s="36" t="str">
         <f>""&amp;Deflatores!G50</f>
         <v xml:space="preserve">           .</v>
@@ -28341,11 +28341,11 @@
     </row>
     <row r="56" spans="1:13" ht="13.5">
       <c r="A56" s="80"/>
-      <c r="B56" s="131" t="str">
+      <c r="B56" s="129" t="str">
         <f>""&amp;Deflatores!B51</f>
         <v/>
       </c>
-      <c r="C56" s="131"/>
+      <c r="C56" s="129"/>
       <c r="D56" s="36" t="str">
         <f>""&amp;Deflatores!G51</f>
         <v xml:space="preserve">           .</v>
@@ -28370,11 +28370,11 @@
     </row>
     <row r="57" spans="1:13" ht="13.5">
       <c r="A57" s="80"/>
-      <c r="B57" s="131" t="str">
+      <c r="B57" s="129" t="str">
         <f>""&amp;Deflatores!B52</f>
         <v/>
       </c>
-      <c r="C57" s="131"/>
+      <c r="C57" s="129"/>
       <c r="D57" s="36" t="str">
         <f>""&amp;Deflatores!G52</f>
         <v xml:space="preserve">           .</v>
@@ -28399,11 +28399,11 @@
     </row>
     <row r="58" spans="1:13" ht="13.5">
       <c r="A58" s="80"/>
-      <c r="B58" s="131" t="str">
+      <c r="B58" s="129" t="str">
         <f>""&amp;Deflatores!B53</f>
         <v/>
       </c>
-      <c r="C58" s="131"/>
+      <c r="C58" s="129"/>
       <c r="D58" s="36" t="str">
         <f>""&amp;Deflatores!G53</f>
         <v xml:space="preserve">           .</v>
@@ -28428,11 +28428,11 @@
     </row>
     <row r="59" spans="1:13" ht="13.5">
       <c r="A59" s="80"/>
-      <c r="B59" s="131" t="str">
+      <c r="B59" s="129" t="str">
         <f>""&amp;Deflatores!B54</f>
         <v/>
       </c>
-      <c r="C59" s="131"/>
+      <c r="C59" s="129"/>
       <c r="D59" s="36" t="str">
         <f>""&amp;Deflatores!G54</f>
         <v xml:space="preserve">           .</v>
@@ -28457,11 +28457,11 @@
     </row>
     <row r="60" spans="1:13" ht="13.5">
       <c r="A60" s="80"/>
-      <c r="B60" s="131" t="str">
+      <c r="B60" s="129" t="str">
         <f>""&amp;Deflatores!B55</f>
         <v/>
       </c>
-      <c r="C60" s="131"/>
+      <c r="C60" s="129"/>
       <c r="D60" s="36" t="str">
         <f>""&amp;Deflatores!G55</f>
         <v xml:space="preserve">           .</v>
@@ -28486,11 +28486,11 @@
     </row>
     <row r="61" spans="1:13" ht="13.5">
       <c r="A61" s="80"/>
-      <c r="B61" s="131" t="str">
+      <c r="B61" s="129" t="str">
         <f>""&amp;Deflatores!B56</f>
         <v/>
       </c>
-      <c r="C61" s="131"/>
+      <c r="C61" s="129"/>
       <c r="D61" s="36" t="str">
         <f>""&amp;Deflatores!G56</f>
         <v xml:space="preserve">           .</v>
@@ -28515,11 +28515,11 @@
     </row>
     <row r="62" spans="1:13" ht="13.5">
       <c r="A62" s="80"/>
-      <c r="B62" s="131" t="str">
+      <c r="B62" s="129" t="str">
         <f>""&amp;Deflatores!B57</f>
         <v/>
       </c>
-      <c r="C62" s="131"/>
+      <c r="C62" s="129"/>
       <c r="D62" s="36" t="str">
         <f>""&amp;Deflatores!G57</f>
         <v xml:space="preserve">           .</v>
@@ -28544,11 +28544,11 @@
     </row>
     <row r="63" spans="1:13" ht="13.5">
       <c r="A63" s="80"/>
-      <c r="B63" s="131" t="str">
+      <c r="B63" s="129" t="str">
         <f>""&amp;Deflatores!B58</f>
         <v/>
       </c>
-      <c r="C63" s="131"/>
+      <c r="C63" s="129"/>
       <c r="D63" s="36" t="str">
         <f>""&amp;Deflatores!G58</f>
         <v xml:space="preserve">           .</v>
@@ -28573,11 +28573,11 @@
     </row>
     <row r="64" spans="1:13" ht="13.5">
       <c r="A64" s="80"/>
-      <c r="B64" s="131" t="str">
+      <c r="B64" s="129" t="str">
         <f>""&amp;Deflatores!B59</f>
         <v/>
       </c>
-      <c r="C64" s="131"/>
+      <c r="C64" s="129"/>
       <c r="D64" s="36" t="str">
         <f>""&amp;Deflatores!G59</f>
         <v xml:space="preserve">           .</v>
@@ -28602,11 +28602,11 @@
     </row>
     <row r="65" spans="1:13" ht="13.5">
       <c r="A65" s="80"/>
-      <c r="B65" s="131" t="str">
+      <c r="B65" s="129" t="str">
         <f>""&amp;Deflatores!B60</f>
         <v/>
       </c>
-      <c r="C65" s="131"/>
+      <c r="C65" s="129"/>
       <c r="D65" s="36" t="str">
         <f>""&amp;Deflatores!G60</f>
         <v xml:space="preserve">           .</v>
@@ -28631,11 +28631,11 @@
     </row>
     <row r="66" spans="1:13" ht="13.5">
       <c r="A66" s="80"/>
-      <c r="B66" s="131" t="str">
+      <c r="B66" s="129" t="str">
         <f>""&amp;Deflatores!B61</f>
         <v/>
       </c>
-      <c r="C66" s="131"/>
+      <c r="C66" s="129"/>
       <c r="D66" s="36" t="str">
         <f>""&amp;Deflatores!G61</f>
         <v xml:space="preserve">           .</v>
@@ -28660,11 +28660,11 @@
     </row>
     <row r="67" spans="1:13" ht="13.5">
       <c r="A67" s="80"/>
-      <c r="B67" s="131" t="str">
+      <c r="B67" s="129" t="str">
         <f>""&amp;Deflatores!B62</f>
         <v/>
       </c>
-      <c r="C67" s="131"/>
+      <c r="C67" s="129"/>
       <c r="D67" s="36" t="str">
         <f>""&amp;Deflatores!G62</f>
         <v xml:space="preserve">           .</v>
@@ -28689,11 +28689,11 @@
     </row>
     <row r="68" spans="1:13" ht="13.5">
       <c r="A68" s="80"/>
-      <c r="B68" s="131" t="str">
+      <c r="B68" s="129" t="str">
         <f>""&amp;Deflatores!B63</f>
         <v/>
       </c>
-      <c r="C68" s="131"/>
+      <c r="C68" s="129"/>
       <c r="D68" s="36" t="str">
         <f>""&amp;Deflatores!G63</f>
         <v xml:space="preserve">           .</v>
@@ -28718,11 +28718,11 @@
     </row>
     <row r="69" spans="1:13" ht="13.5">
       <c r="A69" s="80"/>
-      <c r="B69" s="131" t="str">
+      <c r="B69" s="129" t="str">
         <f>""&amp;Deflatores!B64</f>
         <v/>
       </c>
-      <c r="C69" s="131"/>
+      <c r="C69" s="129"/>
       <c r="D69" s="36" t="str">
         <f>""&amp;Deflatores!G64</f>
         <v xml:space="preserve">           .</v>
@@ -28765,63 +28765,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="68">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A1:M3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B67:C67"/>
@@ -28833,6 +28776,63 @@
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A1:M3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.023611111111111" bottom="1.023611111111111" header="0.51180555555555551" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="47" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
